--- a/data/pca/factorExposure/factorExposure_2010-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-22.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01574546201938239</v>
+        <v>-0.01717066220581672</v>
       </c>
       <c r="C2">
-        <v>0.003063633011670346</v>
+        <v>0.001097078350748035</v>
       </c>
       <c r="D2">
-        <v>0.01088604829607682</v>
+        <v>0.008006144526897477</v>
       </c>
       <c r="E2">
-        <v>0.01072566126787762</v>
+        <v>-0.0003022443501616875</v>
       </c>
       <c r="F2">
-        <v>-0.02707904203511367</v>
+        <v>0.01064288122531632</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1166092150887249</v>
+        <v>-0.09307147769524832</v>
       </c>
       <c r="C4">
-        <v>-0.06357103923110576</v>
+        <v>0.01683639622653788</v>
       </c>
       <c r="D4">
-        <v>0.05775910829768514</v>
+        <v>0.08346149568179631</v>
       </c>
       <c r="E4">
-        <v>-0.007902114451261585</v>
+        <v>0.03013454748374219</v>
       </c>
       <c r="F4">
-        <v>-0.02213462875005764</v>
+        <v>-0.03161808980112261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1240448221293397</v>
+        <v>-0.1531020545903387</v>
       </c>
       <c r="C6">
-        <v>-0.01979806930475901</v>
+        <v>0.0248455314410772</v>
       </c>
       <c r="D6">
-        <v>0.03369674922164659</v>
+        <v>-0.02143597271349656</v>
       </c>
       <c r="E6">
-        <v>0.02840226260696503</v>
+        <v>0.00968230349501426</v>
       </c>
       <c r="F6">
-        <v>0.05073548499575568</v>
+        <v>-0.04114851234116219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0674000165421738</v>
+        <v>-0.05950007574842679</v>
       </c>
       <c r="C7">
-        <v>-0.04273137273567133</v>
+        <v>-0.0004759152068889596</v>
       </c>
       <c r="D7">
-        <v>0.07411523457273277</v>
+        <v>0.05176608932143221</v>
       </c>
       <c r="E7">
-        <v>0.02224019437782454</v>
+        <v>0.01485116880835852</v>
       </c>
       <c r="F7">
-        <v>-0.05064760458835891</v>
+        <v>-0.05245393162033808</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05411433947520637</v>
+        <v>-0.05848681398033474</v>
       </c>
       <c r="C8">
-        <v>-0.03031528921760019</v>
+        <v>-0.01275502282250563</v>
       </c>
       <c r="D8">
-        <v>0.04812725412953548</v>
+        <v>0.03035475177520889</v>
       </c>
       <c r="E8">
-        <v>-0.01839873746152819</v>
+        <v>0.0151618497411789</v>
       </c>
       <c r="F8">
-        <v>0.01925799023712412</v>
+        <v>0.029959187348383</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08158090357834656</v>
+        <v>-0.07109140773340825</v>
       </c>
       <c r="C9">
-        <v>-0.04053559623401477</v>
+        <v>0.01294092068643991</v>
       </c>
       <c r="D9">
-        <v>0.0440719489190748</v>
+        <v>0.08295980416295701</v>
       </c>
       <c r="E9">
-        <v>-0.0170281286497602</v>
+        <v>0.02477297157377983</v>
       </c>
       <c r="F9">
-        <v>-0.01262414574444717</v>
+        <v>-0.05352500108148125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1174964603831391</v>
+        <v>-0.09439540201409927</v>
       </c>
       <c r="C10">
-        <v>0.1374780034212203</v>
+        <v>0.01690201164128401</v>
       </c>
       <c r="D10">
-        <v>-0.08016286120412644</v>
+        <v>-0.1713190360818788</v>
       </c>
       <c r="E10">
-        <v>0.02900713345965706</v>
+        <v>-0.03860355019387176</v>
       </c>
       <c r="F10">
-        <v>-0.02341903947243272</v>
+        <v>0.05317327192749383</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0761674905829863</v>
+        <v>-0.08745348261071229</v>
       </c>
       <c r="C11">
-        <v>-0.0337624803629363</v>
+        <v>0.01222452924746076</v>
       </c>
       <c r="D11">
-        <v>0.07201011434158539</v>
+        <v>0.1145351039893388</v>
       </c>
       <c r="E11">
-        <v>-0.02702702434245133</v>
+        <v>0.04860714935855989</v>
       </c>
       <c r="F11">
-        <v>-0.008467553414024364</v>
+        <v>-0.01956889275521949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07175375430324264</v>
+        <v>-0.09252643155583268</v>
       </c>
       <c r="C12">
-        <v>-0.03145563122461322</v>
+        <v>0.01006066931460749</v>
       </c>
       <c r="D12">
-        <v>0.07467187073947018</v>
+        <v>0.1219374736772127</v>
       </c>
       <c r="E12">
-        <v>-0.0580470677019005</v>
+        <v>0.04810444570577908</v>
       </c>
       <c r="F12">
-        <v>-0.03077011570870084</v>
+        <v>-0.02149172908338857</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02989015405616884</v>
+        <v>-0.04257984139703154</v>
       </c>
       <c r="C13">
-        <v>-0.02022905715157834</v>
+        <v>0.003869993797136774</v>
       </c>
       <c r="D13">
-        <v>0.01764686401833187</v>
+        <v>0.04804117386778017</v>
       </c>
       <c r="E13">
-        <v>0.01610857575126553</v>
+        <v>-0.01176491761580928</v>
       </c>
       <c r="F13">
-        <v>-0.01255429621348707</v>
+        <v>-0.01224587602895918</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03881328195383189</v>
+        <v>-0.02196587918857741</v>
       </c>
       <c r="C14">
-        <v>-0.02176705777568325</v>
+        <v>0.01451776716388194</v>
       </c>
       <c r="D14">
-        <v>0.02338063562025657</v>
+        <v>0.03268596831644821</v>
       </c>
       <c r="E14">
-        <v>-0.02100145341777183</v>
+        <v>0.01898611866677746</v>
       </c>
       <c r="F14">
-        <v>-0.00160121728990249</v>
+        <v>-0.01798633972007247</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01675854484312921</v>
+        <v>-0.0319881187979249</v>
       </c>
       <c r="C15">
-        <v>-0.01113534492542866</v>
+        <v>0.005471662824571743</v>
       </c>
       <c r="D15">
-        <v>0.01080265886143547</v>
+        <v>0.04539036666139153</v>
       </c>
       <c r="E15">
-        <v>0.04800026094556312</v>
+        <v>0.009132929319920519</v>
       </c>
       <c r="F15">
-        <v>-0.0009099863236383095</v>
+        <v>-0.03136509153281036</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08076095236475647</v>
+        <v>-0.07376297376840199</v>
       </c>
       <c r="C16">
-        <v>-0.02626438918427067</v>
+        <v>0.003794253714136947</v>
       </c>
       <c r="D16">
-        <v>0.08028862274959266</v>
+        <v>0.1167935828310052</v>
       </c>
       <c r="E16">
-        <v>-0.04095623822680444</v>
+        <v>0.06324556964819543</v>
       </c>
       <c r="F16">
-        <v>-0.0002739853047838501</v>
+        <v>-0.02980436340916151</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02203758171725042</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003580395642378723</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02029354406488827</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01076336009499649</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02184997989037779</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05043553000395302</v>
+        <v>-0.06104672811463034</v>
       </c>
       <c r="C20">
-        <v>-0.04984490621624646</v>
+        <v>0.001665123945137304</v>
       </c>
       <c r="D20">
-        <v>0.01116394323399144</v>
+        <v>0.07449364584316806</v>
       </c>
       <c r="E20">
-        <v>0.01333009539549403</v>
+        <v>0.0559146050891277</v>
       </c>
       <c r="F20">
-        <v>-0.02507445313577449</v>
+        <v>-0.02742819717245251</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02975517717784726</v>
+        <v>-0.03888938139223191</v>
       </c>
       <c r="C21">
-        <v>-0.02064423758072727</v>
+        <v>0.007429393476804312</v>
       </c>
       <c r="D21">
-        <v>-0.01074729161189355</v>
+        <v>0.03628822136365158</v>
       </c>
       <c r="E21">
-        <v>-0.02121238251395812</v>
+        <v>-0.007683499352523931</v>
       </c>
       <c r="F21">
-        <v>0.003591473540907412</v>
+        <v>0.02034013197572813</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03238188634573284</v>
+        <v>-0.0417760191965952</v>
       </c>
       <c r="C22">
-        <v>0.0002542062859102622</v>
+        <v>0.0001099906846231605</v>
       </c>
       <c r="D22">
-        <v>0.02406383687167703</v>
+        <v>0.002767180146437059</v>
       </c>
       <c r="E22">
-        <v>0.6271761301859939</v>
+        <v>0.0290611828201385</v>
       </c>
       <c r="F22">
-        <v>-0.05039253293306284</v>
+        <v>0.008799441442162602</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03277153351868083</v>
+        <v>-0.04183545114052346</v>
       </c>
       <c r="C23">
-        <v>0.0001822187303772377</v>
+        <v>0.0001341170612587865</v>
       </c>
       <c r="D23">
-        <v>0.02577083578742432</v>
+        <v>0.002890901139952466</v>
       </c>
       <c r="E23">
-        <v>0.6303856976807951</v>
+        <v>0.02941096797013936</v>
       </c>
       <c r="F23">
-        <v>-0.04998219887188826</v>
+        <v>0.008339884344268208</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08148613161082137</v>
+        <v>-0.08024655453672075</v>
       </c>
       <c r="C24">
-        <v>-0.04032312468222798</v>
+        <v>0.004109024418251763</v>
       </c>
       <c r="D24">
-        <v>0.05907351701098806</v>
+        <v>0.1175798806707201</v>
       </c>
       <c r="E24">
-        <v>-0.03920420725206749</v>
+        <v>0.05104019807675337</v>
       </c>
       <c r="F24">
-        <v>-0.007031053938652252</v>
+        <v>-0.02258266220310568</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0859131539854239</v>
+        <v>-0.08487641589473785</v>
       </c>
       <c r="C25">
-        <v>-0.03265119483680422</v>
+        <v>0.006111196661389552</v>
       </c>
       <c r="D25">
-        <v>0.07140697711160818</v>
+        <v>0.1061786431374949</v>
       </c>
       <c r="E25">
-        <v>-0.06158276881052317</v>
+        <v>0.03419516063648693</v>
       </c>
       <c r="F25">
-        <v>-0.02321321549625213</v>
+        <v>-0.02938315548407692</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04129572231853017</v>
+        <v>-0.05531139417557122</v>
       </c>
       <c r="C26">
-        <v>-0.0003914958745244988</v>
+        <v>0.01512936616901946</v>
       </c>
       <c r="D26">
-        <v>-0.01072253869986026</v>
+        <v>0.03616769619669697</v>
       </c>
       <c r="E26">
-        <v>0.01493748173119653</v>
+        <v>0.02841623557864913</v>
       </c>
       <c r="F26">
-        <v>0.02641660952500563</v>
+        <v>0.009595750627909036</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1379594683706757</v>
+        <v>-0.1424983754245305</v>
       </c>
       <c r="C28">
-        <v>0.2701286003710576</v>
+        <v>0.01494162499979392</v>
       </c>
       <c r="D28">
-        <v>-0.118720745061685</v>
+        <v>-0.2670204564286684</v>
       </c>
       <c r="E28">
-        <v>-0.007779341152809894</v>
+        <v>-0.06886620594944216</v>
       </c>
       <c r="F28">
-        <v>0.0546124106068157</v>
+        <v>-0.02885755334849582</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03363880265745445</v>
+        <v>-0.02698516266243795</v>
       </c>
       <c r="C29">
-        <v>-0.008628186297916078</v>
+        <v>0.008747673282729334</v>
       </c>
       <c r="D29">
-        <v>0.03026207550860308</v>
+        <v>0.03132249171695636</v>
       </c>
       <c r="E29">
-        <v>-0.02830496682819719</v>
+        <v>0.01192695898270785</v>
       </c>
       <c r="F29">
-        <v>-0.03654923940140984</v>
+        <v>0.01274381858395001</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09627979498175025</v>
+        <v>-0.0635179266407515</v>
       </c>
       <c r="C30">
-        <v>-0.05120389790554391</v>
+        <v>0.005587605384910243</v>
       </c>
       <c r="D30">
-        <v>0.09574155053966418</v>
+        <v>0.08308272368141636</v>
       </c>
       <c r="E30">
-        <v>-0.06344697571425617</v>
+        <v>0.02483488385602055</v>
       </c>
       <c r="F30">
-        <v>0.04754098129404013</v>
+        <v>-0.1056487411962907</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03035662258432453</v>
+        <v>-0.04846487524184562</v>
       </c>
       <c r="C31">
-        <v>-0.03568669050842618</v>
+        <v>0.0150610537276024</v>
       </c>
       <c r="D31">
-        <v>0.0233694509005179</v>
+        <v>0.02811078183885662</v>
       </c>
       <c r="E31">
-        <v>-0.001190630986146386</v>
+        <v>0.02745978891932362</v>
       </c>
       <c r="F31">
-        <v>-0.01957870226208701</v>
+        <v>0.003687824556884882</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05878674830385684</v>
+        <v>-0.04775157626495236</v>
       </c>
       <c r="C32">
-        <v>-0.02479191378786344</v>
+        <v>0.0002658944078441548</v>
       </c>
       <c r="D32">
-        <v>-0.005008848481965942</v>
+        <v>0.03038982702133807</v>
       </c>
       <c r="E32">
-        <v>-0.07797768628839728</v>
+        <v>0.02950936414602105</v>
       </c>
       <c r="F32">
-        <v>0.06880632764680565</v>
+        <v>-0.0009135022855561373</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08734167514738829</v>
+        <v>-0.09008421279062544</v>
       </c>
       <c r="C33">
-        <v>-0.01771866161816978</v>
+        <v>0.009335610443563198</v>
       </c>
       <c r="D33">
-        <v>0.08932226825399432</v>
+        <v>0.09381731468999706</v>
       </c>
       <c r="E33">
-        <v>-0.02835260420941102</v>
+        <v>0.04691424408799571</v>
       </c>
       <c r="F33">
-        <v>-0.01788684638121786</v>
+        <v>-0.04115076590237547</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06943266650429944</v>
+        <v>-0.06809505941817777</v>
       </c>
       <c r="C34">
-        <v>-0.02108661891164096</v>
+        <v>0.01224544804583625</v>
       </c>
       <c r="D34">
-        <v>0.05670216653333924</v>
+        <v>0.09846194925804906</v>
       </c>
       <c r="E34">
-        <v>-0.03649432356105813</v>
+        <v>0.03580835217200503</v>
       </c>
       <c r="F34">
-        <v>-0.01235101481200438</v>
+        <v>-0.04208195527921539</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01343974225430291</v>
+        <v>-0.02444360991739013</v>
       </c>
       <c r="C35">
-        <v>-0.004599380679516844</v>
+        <v>0.002527193168869463</v>
       </c>
       <c r="D35">
-        <v>0.01862453899324801</v>
+        <v>0.01155410131085519</v>
       </c>
       <c r="E35">
-        <v>-0.002097022128926734</v>
+        <v>0.0114937172044407</v>
       </c>
       <c r="F35">
-        <v>-0.02180633895830086</v>
+        <v>-0.009356190266837735</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02432673028345281</v>
+        <v>-0.02407144759225539</v>
       </c>
       <c r="C36">
-        <v>-0.01142261055671378</v>
+        <v>0.007352536943969785</v>
       </c>
       <c r="D36">
-        <v>0.01128880863812641</v>
+        <v>0.03834458378226217</v>
       </c>
       <c r="E36">
-        <v>0.004015443670983999</v>
+        <v>0.01732031505434463</v>
       </c>
       <c r="F36">
-        <v>0.003178880983146317</v>
+        <v>-0.01042258261885756</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008930364261161223</v>
+        <v>-0.001659353356262065</v>
       </c>
       <c r="C38">
-        <v>-0.008617778505519782</v>
+        <v>0.0002718649045763949</v>
       </c>
       <c r="D38">
-        <v>0.01361808344106123</v>
+        <v>0.001224833167792216</v>
       </c>
       <c r="E38">
-        <v>0.02103864148398619</v>
+        <v>0.001518920299738627</v>
       </c>
       <c r="F38">
-        <v>-0.02751564980039412</v>
+        <v>0.0005384383295249811</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1140534785888143</v>
+        <v>-0.1088004926348643</v>
       </c>
       <c r="C39">
-        <v>-0.05022379072249229</v>
+        <v>0.01763448796334668</v>
       </c>
       <c r="D39">
-        <v>0.1276359369088589</v>
+        <v>0.1529879281090243</v>
       </c>
       <c r="E39">
-        <v>-0.1438534386906467</v>
+        <v>0.06131263628408486</v>
       </c>
       <c r="F39">
-        <v>-0.0320676249524602</v>
+        <v>-0.02847147001173282</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009013789306280896</v>
+        <v>-0.03700460030968316</v>
       </c>
       <c r="C40">
-        <v>-0.05137824716023259</v>
+        <v>0.007301059776333243</v>
       </c>
       <c r="D40">
-        <v>0.01490096314332147</v>
+        <v>0.03172161277818422</v>
       </c>
       <c r="E40">
-        <v>0.0636962258944445</v>
+        <v>0.003228239487340247</v>
       </c>
       <c r="F40">
-        <v>-0.0424241956292588</v>
+        <v>0.01384516584926641</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02901017037169285</v>
+        <v>-0.02609337427928681</v>
       </c>
       <c r="C41">
-        <v>-0.01053132523109787</v>
+        <v>0.006734147205146813</v>
       </c>
       <c r="D41">
-        <v>0.01102556214519203</v>
+        <v>0.0111099310820314</v>
       </c>
       <c r="E41">
-        <v>-0.008154285994208843</v>
+        <v>0.01235080995314137</v>
       </c>
       <c r="F41">
-        <v>-0.01529860848663827</v>
+        <v>0.009755126211089917</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0386245240243287</v>
+        <v>-0.04107827705544514</v>
       </c>
       <c r="C43">
-        <v>1.568166064959012e-06</v>
+        <v>0.00676284074385696</v>
       </c>
       <c r="D43">
-        <v>0.03007081449245828</v>
+        <v>0.02063541153427704</v>
       </c>
       <c r="E43">
-        <v>-0.002202657481660716</v>
+        <v>0.02519778612438545</v>
       </c>
       <c r="F43">
-        <v>-0.001677749767078677</v>
+        <v>0.01125297112355285</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1148778033357819</v>
+        <v>-0.07212022199271867</v>
       </c>
       <c r="C44">
-        <v>-0.08508385906496659</v>
+        <v>0.02196369752179254</v>
       </c>
       <c r="D44">
-        <v>0.1492988989993629</v>
+        <v>0.1011694032252391</v>
       </c>
       <c r="E44">
-        <v>0.09810234633059456</v>
+        <v>0.06797983728623501</v>
       </c>
       <c r="F44">
-        <v>-0.09905114683120096</v>
+        <v>-0.1687083275924748</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02333197120929328</v>
+        <v>-0.02179734370857461</v>
       </c>
       <c r="C46">
-        <v>0.01713820811657948</v>
+        <v>0.004121776204554814</v>
       </c>
       <c r="D46">
-        <v>0.02628172083602731</v>
+        <v>0.01152065402721433</v>
       </c>
       <c r="E46">
-        <v>0.02642433001392717</v>
+        <v>0.02338531729117259</v>
       </c>
       <c r="F46">
-        <v>-0.02861761721288694</v>
+        <v>0.0001868393681661583</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03846090011579348</v>
+        <v>-0.05194017713281841</v>
       </c>
       <c r="C47">
-        <v>-0.02061816700836729</v>
+        <v>0.003349911578523041</v>
       </c>
       <c r="D47">
-        <v>0.02203783978393447</v>
+        <v>0.01247156836984442</v>
       </c>
       <c r="E47">
-        <v>-0.01292843581890876</v>
+        <v>0.0225888525573738</v>
       </c>
       <c r="F47">
-        <v>-0.007011264399962089</v>
+        <v>0.0445844600451735</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04221804359706775</v>
+        <v>-0.04792221281078543</v>
       </c>
       <c r="C48">
-        <v>-0.01072582946700851</v>
+        <v>0.003129723789791352</v>
       </c>
       <c r="D48">
-        <v>0.009626496384089148</v>
+        <v>0.04782451104675346</v>
       </c>
       <c r="E48">
-        <v>-0.005641694461543684</v>
+        <v>-0.004242040113648563</v>
       </c>
       <c r="F48">
-        <v>-0.01741631071460463</v>
+        <v>-0.01077820983251066</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.225994968778749</v>
+        <v>-0.2033787318532822</v>
       </c>
       <c r="C49">
-        <v>-0.006952801901963464</v>
+        <v>0.01754441452149064</v>
       </c>
       <c r="D49">
-        <v>-0.06268942729949338</v>
+        <v>-0.01169045090520219</v>
       </c>
       <c r="E49">
-        <v>-0.02508264369384699</v>
+        <v>0.03345297422821732</v>
       </c>
       <c r="F49">
-        <v>-0.04576046470990699</v>
+        <v>-0.03578409719085282</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03868919903448702</v>
+        <v>-0.04819843765398596</v>
       </c>
       <c r="C50">
-        <v>-0.02626498257745928</v>
+        <v>0.01109951327631211</v>
       </c>
       <c r="D50">
-        <v>0.01126143588070234</v>
+        <v>0.02683525604626775</v>
       </c>
       <c r="E50">
-        <v>-0.01411242739010592</v>
+        <v>0.0293286189814236</v>
       </c>
       <c r="F50">
-        <v>-0.008770343627723432</v>
+        <v>-0.009186972139614709</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01431572305161295</v>
+        <v>-0.002459631961424505</v>
       </c>
       <c r="C51">
-        <v>0.0276781548054035</v>
+        <v>0.0006352140247669067</v>
       </c>
       <c r="D51">
-        <v>0.003438567830866659</v>
+        <v>-0.002910951193505449</v>
       </c>
       <c r="E51">
-        <v>0.009528175591924374</v>
+        <v>-0.0004432867964163613</v>
       </c>
       <c r="F51">
-        <v>-0.01325965010564945</v>
+        <v>-0.005597503209205198</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0992261868169458</v>
+        <v>-0.1449858926143678</v>
       </c>
       <c r="C52">
-        <v>-0.0792946761003271</v>
+        <v>0.01354956335088682</v>
       </c>
       <c r="D52">
-        <v>0.047881514586966</v>
+        <v>0.05191368204719899</v>
       </c>
       <c r="E52">
-        <v>-0.02381479356775549</v>
+        <v>0.02379509926681201</v>
       </c>
       <c r="F52">
-        <v>-0.03173778852500864</v>
+        <v>-0.03587452122840264</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1609042222884754</v>
+        <v>-0.1741661663747152</v>
       </c>
       <c r="C53">
-        <v>-0.0438104161837622</v>
+        <v>0.01645474826058769</v>
       </c>
       <c r="D53">
-        <v>0.02471336079273457</v>
+        <v>0.01218782755919512</v>
       </c>
       <c r="E53">
-        <v>0.01278196440397943</v>
+        <v>0.0359035321218799</v>
       </c>
       <c r="F53">
-        <v>-0.04509604348494727</v>
+        <v>-0.06683950046007997</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05374572181287076</v>
+        <v>-0.02140344925901843</v>
       </c>
       <c r="C54">
-        <v>-0.04703673934597194</v>
+        <v>0.01246555757171531</v>
       </c>
       <c r="D54">
-        <v>0.03573571881128627</v>
+        <v>0.03379722689680606</v>
       </c>
       <c r="E54">
-        <v>0.02256954857782378</v>
+        <v>0.01548039892382065</v>
       </c>
       <c r="F54">
-        <v>-0.02001354509945134</v>
+        <v>0.006281437479339467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08433350913438034</v>
+        <v>-0.114402600876377</v>
       </c>
       <c r="C55">
-        <v>-0.002746449779142136</v>
+        <v>0.01495873585355022</v>
       </c>
       <c r="D55">
-        <v>0.069948647786365</v>
+        <v>0.01204550017575968</v>
       </c>
       <c r="E55">
-        <v>-0.02484351510559141</v>
+        <v>0.03074660173346117</v>
       </c>
       <c r="F55">
-        <v>-0.03040219701833325</v>
+        <v>-0.04765998294116827</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1539588738516684</v>
+        <v>-0.1778975324578342</v>
       </c>
       <c r="C56">
-        <v>-0.04676964167819816</v>
+        <v>0.01379079445267651</v>
       </c>
       <c r="D56">
-        <v>0.05682780092280235</v>
+        <v>0.007616605263700079</v>
       </c>
       <c r="E56">
-        <v>-0.01624317594709791</v>
+        <v>0.04026796667150662</v>
       </c>
       <c r="F56">
-        <v>-0.08193843290918221</v>
+        <v>-0.04267940234199302</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05036855492037005</v>
+        <v>-0.04648351472244514</v>
       </c>
       <c r="C58">
-        <v>-0.03697918917263933</v>
+        <v>0.002190772859829998</v>
       </c>
       <c r="D58">
-        <v>0.01719114386246698</v>
+        <v>0.0649741845615296</v>
       </c>
       <c r="E58">
-        <v>0.05129997307283062</v>
+        <v>0.02261168908665736</v>
       </c>
       <c r="F58">
-        <v>-0.005194092055195235</v>
+        <v>0.04528812166998852</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1919028938057329</v>
+        <v>-0.1714982163397765</v>
       </c>
       <c r="C59">
-        <v>0.2339911872746569</v>
+        <v>0.01622390630059957</v>
       </c>
       <c r="D59">
-        <v>-0.08114725986136846</v>
+        <v>-0.2246454221450664</v>
       </c>
       <c r="E59">
-        <v>-0.02543807081868757</v>
+        <v>-0.04921623254438866</v>
       </c>
       <c r="F59">
-        <v>0.006194612555469943</v>
+        <v>0.03439996979883558</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2422610674876468</v>
+        <v>-0.2369338748968865</v>
       </c>
       <c r="C60">
-        <v>-0.1164356709962366</v>
+        <v>-0.003892666571496789</v>
       </c>
       <c r="D60">
-        <v>-0.01469110197432675</v>
+        <v>0.04674210904695988</v>
       </c>
       <c r="E60">
-        <v>-0.03703543347320406</v>
+        <v>0.007237790781275608</v>
       </c>
       <c r="F60">
-        <v>-0.09652704567851902</v>
+        <v>0.02841463948719571</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1085523143731413</v>
+        <v>-0.08351302644584342</v>
       </c>
       <c r="C61">
-        <v>-0.02716676508684219</v>
+        <v>0.01380333355293258</v>
       </c>
       <c r="D61">
-        <v>0.08397662520858173</v>
+        <v>0.1128624635671852</v>
       </c>
       <c r="E61">
-        <v>-0.08727277800279051</v>
+        <v>0.04227545433831775</v>
       </c>
       <c r="F61">
-        <v>-0.05929351015168394</v>
+        <v>-0.01472511199826643</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1510175982255856</v>
+        <v>-0.1704855438323651</v>
       </c>
       <c r="C62">
-        <v>-0.03319645192326612</v>
+        <v>0.01780457426013629</v>
       </c>
       <c r="D62">
-        <v>0.03768355804615132</v>
+        <v>0.01090585066941609</v>
       </c>
       <c r="E62">
-        <v>0.005877454128581231</v>
+        <v>0.03787308644256577</v>
       </c>
       <c r="F62">
-        <v>-0.05106246833015494</v>
+        <v>-0.0238124510577469</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04248472184596497</v>
+        <v>-0.0427259767534467</v>
       </c>
       <c r="C63">
-        <v>-0.004605880235145333</v>
+        <v>0.003258814096432475</v>
       </c>
       <c r="D63">
-        <v>0.02192317134196422</v>
+        <v>0.05135503395823975</v>
       </c>
       <c r="E63">
-        <v>-0.01209432882519563</v>
+        <v>0.02282735458180109</v>
       </c>
       <c r="F63">
-        <v>0.03320327271492456</v>
+        <v>-0.006667758174854835</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0947247272950818</v>
+        <v>-0.1118061471508187</v>
       </c>
       <c r="C64">
-        <v>-0.03510513197996832</v>
+        <v>0.01187979726733181</v>
       </c>
       <c r="D64">
-        <v>0.03035559078829647</v>
+        <v>0.04280140986162271</v>
       </c>
       <c r="E64">
-        <v>-0.003777932355101995</v>
+        <v>0.02170909271905327</v>
       </c>
       <c r="F64">
-        <v>-0.07204574798025651</v>
+        <v>-0.02296406001419638</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1151236750794291</v>
+        <v>-0.1444051399352816</v>
       </c>
       <c r="C65">
-        <v>-0.01548796951498504</v>
+        <v>0.03128618899845374</v>
       </c>
       <c r="D65">
-        <v>0.01594674909573286</v>
+        <v>-0.04241698605143528</v>
       </c>
       <c r="E65">
-        <v>-0.008261640143216419</v>
+        <v>0.0005737471900956548</v>
       </c>
       <c r="F65">
-        <v>0.06336753378431791</v>
+        <v>-0.04250760324926174</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1299574435266695</v>
+        <v>-0.1299680071279584</v>
       </c>
       <c r="C66">
-        <v>-0.06811911253547748</v>
+        <v>0.0153459376504994</v>
       </c>
       <c r="D66">
-        <v>0.1338424403627082</v>
+        <v>0.1410273125281229</v>
       </c>
       <c r="E66">
-        <v>-0.1229803934247639</v>
+        <v>0.06812511889847807</v>
       </c>
       <c r="F66">
-        <v>-0.05373831031363944</v>
+        <v>-0.03322439835225264</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0520415883862597</v>
+        <v>-0.06248441855304095</v>
       </c>
       <c r="C67">
-        <v>0.02478321604924541</v>
+        <v>0.003428331144049101</v>
       </c>
       <c r="D67">
-        <v>0.07438200044391367</v>
+        <v>0.05280479270164457</v>
       </c>
       <c r="E67">
-        <v>0.02942009382745542</v>
+        <v>0.01914180822687457</v>
       </c>
       <c r="F67">
-        <v>-0.02565478178352137</v>
+        <v>0.03805865802113247</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1189186859956146</v>
+        <v>-0.1161794171612148</v>
       </c>
       <c r="C68">
-        <v>0.2275421306380916</v>
+        <v>0.02587226581348875</v>
       </c>
       <c r="D68">
-        <v>-0.1059005865587891</v>
+        <v>-0.2641080111037455</v>
       </c>
       <c r="E68">
-        <v>-0.02147424729591902</v>
+        <v>-0.0867709234032259</v>
       </c>
       <c r="F68">
-        <v>0.05944030789259543</v>
+        <v>-0.03314283457790651</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03316461415371234</v>
+        <v>-0.03939082536797591</v>
       </c>
       <c r="C69">
-        <v>0.03301734419513851</v>
+        <v>0.001090544567254654</v>
       </c>
       <c r="D69">
-        <v>0.01988297154373443</v>
+        <v>0.009088624232571035</v>
       </c>
       <c r="E69">
-        <v>0.006130460239971452</v>
+        <v>0.02443855707284617</v>
       </c>
       <c r="F69">
-        <v>-0.01217665020598598</v>
+        <v>0.01216146759937205</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03161471549744886</v>
+        <v>-0.06330040799323249</v>
       </c>
       <c r="C70">
-        <v>0.01495218508449956</v>
+        <v>-0.02779949831948733</v>
       </c>
       <c r="D70">
-        <v>0.03470821546913318</v>
+        <v>0.02712668522531279</v>
       </c>
       <c r="E70">
-        <v>-0.03613474299517171</v>
+        <v>-0.04658978299321975</v>
       </c>
       <c r="F70">
-        <v>-0.03357782241018629</v>
+        <v>0.2753081886694172</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.136682351935508</v>
+        <v>-0.135190517305069</v>
       </c>
       <c r="C71">
-        <v>0.2497249202862969</v>
+        <v>0.03004228681173616</v>
       </c>
       <c r="D71">
-        <v>-0.112100748679575</v>
+        <v>-0.2794463785676036</v>
       </c>
       <c r="E71">
-        <v>-0.008693645016092922</v>
+        <v>-0.0953527565449102</v>
       </c>
       <c r="F71">
-        <v>0.02146863789573608</v>
+        <v>-0.03883244251395038</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1431125618394469</v>
+        <v>-0.1406568989835167</v>
       </c>
       <c r="C72">
-        <v>-0.02163450661741883</v>
+        <v>0.02463078747951748</v>
       </c>
       <c r="D72">
-        <v>0.01572324563799571</v>
+        <v>0.004791823562692621</v>
       </c>
       <c r="E72">
-        <v>0.01175639086008282</v>
+        <v>0.04541345750232381</v>
       </c>
       <c r="F72">
-        <v>-0.008355749281271878</v>
+        <v>-0.02385884841948719</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2140941173001265</v>
+        <v>-0.2038710317137535</v>
       </c>
       <c r="C73">
-        <v>-0.006610269812148207</v>
+        <v>0.01150502717932922</v>
       </c>
       <c r="D73">
-        <v>0.03744477945282877</v>
+        <v>0.01598229249963113</v>
       </c>
       <c r="E73">
-        <v>-0.05620758299646764</v>
+        <v>0.06215184551159833</v>
       </c>
       <c r="F73">
-        <v>-0.17557788920586</v>
+        <v>-0.03788205463883671</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1196717626028206</v>
+        <v>-0.09442736733183672</v>
       </c>
       <c r="C74">
-        <v>-0.04765082403393338</v>
+        <v>0.01218239452100173</v>
       </c>
       <c r="D74">
-        <v>0.07868266643777497</v>
+        <v>0.02137286247673237</v>
       </c>
       <c r="E74">
-        <v>-0.002927519034695934</v>
+        <v>0.04799430837433959</v>
       </c>
       <c r="F74">
-        <v>-0.03575017427359993</v>
+        <v>-0.0466251949842386</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1114355675645705</v>
+        <v>-0.1298166912168796</v>
       </c>
       <c r="C75">
-        <v>-0.05527830738885615</v>
+        <v>0.0263834687591677</v>
       </c>
       <c r="D75">
-        <v>0.034633177890135</v>
+        <v>0.0341419027718684</v>
       </c>
       <c r="E75">
-        <v>-0.001652950901144197</v>
+        <v>0.06094661070740197</v>
       </c>
       <c r="F75">
-        <v>-0.02006858064050434</v>
+        <v>-0.01490068585319904</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02405160451656305</v>
+        <v>-0.003966025689640035</v>
       </c>
       <c r="C76">
-        <v>0.01913867488066782</v>
+        <v>0.0009241096210648431</v>
       </c>
       <c r="D76">
-        <v>0.006192341322742433</v>
+        <v>-0.002524271500438244</v>
       </c>
       <c r="E76">
-        <v>-0.008614656618425044</v>
+        <v>0.000911129126154603</v>
       </c>
       <c r="F76">
-        <v>-0.02378510840016445</v>
+        <v>-0.00421158814306949</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06457275323701496</v>
+        <v>-0.07889648014527641</v>
       </c>
       <c r="C77">
-        <v>-0.04910059415617825</v>
+        <v>0.01018070671120338</v>
       </c>
       <c r="D77">
-        <v>0.01263275567851152</v>
+        <v>0.1127624501881948</v>
       </c>
       <c r="E77">
-        <v>0.002421086922073143</v>
+        <v>0.03815338317539968</v>
       </c>
       <c r="F77">
-        <v>-0.06846141546291372</v>
+        <v>-0.03527037111587732</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1130526694901827</v>
+        <v>-0.1053297356877834</v>
       </c>
       <c r="C78">
-        <v>-0.0502658574486356</v>
+        <v>0.04160288487908822</v>
       </c>
       <c r="D78">
-        <v>0.1064012010125336</v>
+        <v>0.1144699684969058</v>
       </c>
       <c r="E78">
-        <v>0.27387765790944</v>
+        <v>0.08121738054307691</v>
       </c>
       <c r="F78">
-        <v>0.1099262154015627</v>
+        <v>-0.07925059065199738</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1342733019758305</v>
+        <v>-0.1646246451265486</v>
       </c>
       <c r="C79">
-        <v>-0.05865398515508321</v>
+        <v>0.0203701621503159</v>
       </c>
       <c r="D79">
-        <v>0.01261348741241833</v>
+        <v>0.01925967219889975</v>
       </c>
       <c r="E79">
-        <v>-0.005111506398136607</v>
+        <v>0.04992181144278528</v>
       </c>
       <c r="F79">
-        <v>-0.03065298792602402</v>
+        <v>-0.007097201046185231</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07249748565653188</v>
+        <v>-0.08035463986551261</v>
       </c>
       <c r="C80">
-        <v>-0.03207378699037317</v>
+        <v>-0.0005640930272486986</v>
       </c>
       <c r="D80">
-        <v>0.1113468347312467</v>
+        <v>0.05864264755623123</v>
       </c>
       <c r="E80">
-        <v>-0.0383143001347441</v>
+        <v>0.03598214354233891</v>
       </c>
       <c r="F80">
-        <v>-0.06891590119631325</v>
+        <v>0.01598931247625115</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1390067411627246</v>
+        <v>-0.1232757811582682</v>
       </c>
       <c r="C81">
-        <v>-0.06333150325922687</v>
+        <v>0.03031434827694745</v>
       </c>
       <c r="D81">
-        <v>0.05827986576228506</v>
+        <v>0.01872914407317625</v>
       </c>
       <c r="E81">
-        <v>-0.009381019494802426</v>
+        <v>0.0600752581308811</v>
       </c>
       <c r="F81">
-        <v>-0.04054619177839702</v>
+        <v>-0.006440225485283897</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1547733924643878</v>
+        <v>-0.1640251875293046</v>
       </c>
       <c r="C82">
-        <v>-0.04673430354352078</v>
+        <v>0.02136793877165034</v>
       </c>
       <c r="D82">
-        <v>0.05344311104400221</v>
+        <v>0.01673421785959582</v>
       </c>
       <c r="E82">
-        <v>-0.03370421588240224</v>
+        <v>0.03490893461264675</v>
       </c>
       <c r="F82">
-        <v>-0.04649317039520277</v>
+        <v>-0.0659773549910322</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.081983579921606</v>
+        <v>-0.06316900392095849</v>
       </c>
       <c r="C83">
-        <v>-0.1184377434921454</v>
+        <v>0.003483154399769765</v>
       </c>
       <c r="D83">
-        <v>0.08253832439340435</v>
+        <v>0.04968060832119111</v>
       </c>
       <c r="E83">
-        <v>0.02685110885794104</v>
+        <v>0.005473707569569592</v>
       </c>
       <c r="F83">
-        <v>-0.008746560204024456</v>
+        <v>0.04191410917639628</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05615616653352351</v>
+        <v>-0.05912412172322892</v>
       </c>
       <c r="C84">
-        <v>0.06465115775810372</v>
+        <v>0.0111822685386005</v>
       </c>
       <c r="D84">
-        <v>-0.07472353327070502</v>
+        <v>0.06382802987645672</v>
       </c>
       <c r="E84">
-        <v>-0.04500944827935614</v>
+        <v>0.001785821637780882</v>
       </c>
       <c r="F84">
-        <v>0.007486524524162837</v>
+        <v>-0.009983551998700378</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1256488305454837</v>
+        <v>-0.1388298891829099</v>
       </c>
       <c r="C85">
-        <v>-0.04199602931724197</v>
+        <v>0.02585112776579789</v>
       </c>
       <c r="D85">
-        <v>0.02857113636844457</v>
+        <v>0.01610545627917103</v>
       </c>
       <c r="E85">
-        <v>-0.008758631345036379</v>
+        <v>0.04146314835680468</v>
       </c>
       <c r="F85">
-        <v>-0.06462391289432395</v>
+        <v>-0.04658714013546868</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.175738228159618</v>
+        <v>-0.09642098862074691</v>
       </c>
       <c r="C86">
-        <v>-0.5291029849134112</v>
+        <v>-0.007315697888073969</v>
       </c>
       <c r="D86">
-        <v>-0.7680462637314432</v>
+        <v>0.02260920397900634</v>
       </c>
       <c r="E86">
-        <v>0.005284899813418157</v>
+        <v>0.1539088689007668</v>
       </c>
       <c r="F86">
-        <v>0.08424239258539588</v>
+        <v>0.8674617314377149</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.111464186868804</v>
+        <v>-0.09857764620563736</v>
       </c>
       <c r="C87">
-        <v>-0.08700855937827805</v>
+        <v>0.02512959884837764</v>
       </c>
       <c r="D87">
-        <v>0.06602084024937445</v>
+        <v>0.07679116670926267</v>
       </c>
       <c r="E87">
-        <v>0.02250925567502727</v>
+        <v>-0.05389672924581226</v>
       </c>
       <c r="F87">
-        <v>-0.05476568861399325</v>
+        <v>-0.07810018447523763</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05263089386771828</v>
+        <v>-0.06113760012701427</v>
       </c>
       <c r="C88">
-        <v>-0.02359200129560943</v>
+        <v>0.002873458445656588</v>
       </c>
       <c r="D88">
-        <v>0.05003549309544815</v>
+        <v>0.05368468169072167</v>
       </c>
       <c r="E88">
-        <v>-0.0609722875568014</v>
+        <v>0.02768905567949872</v>
       </c>
       <c r="F88">
-        <v>-0.03145131430347867</v>
+        <v>-0.008927124961942515</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1901427165488757</v>
+        <v>-0.1358871877887378</v>
       </c>
       <c r="C89">
-        <v>0.3292642932250902</v>
+        <v>0.008083639646532786</v>
       </c>
       <c r="D89">
-        <v>-0.1625395146923594</v>
+        <v>-0.2572461977660395</v>
       </c>
       <c r="E89">
-        <v>0.06376548806309364</v>
+        <v>-0.09149120722404955</v>
       </c>
       <c r="F89">
-        <v>0.01950627465005116</v>
+        <v>-0.02249956866626692</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1486738394843582</v>
+        <v>-0.1460654976492421</v>
       </c>
       <c r="C90">
-        <v>0.2342667991065858</v>
+        <v>0.02557852643701172</v>
       </c>
       <c r="D90">
-        <v>-0.1076025421434223</v>
+        <v>-0.266889674642124</v>
       </c>
       <c r="E90">
-        <v>-0.02454332237439591</v>
+        <v>-0.1086085995884852</v>
       </c>
       <c r="F90">
-        <v>0.009489837854865998</v>
+        <v>-0.02178926324280336</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08041034537294339</v>
+        <v>-0.1186020585846423</v>
       </c>
       <c r="C91">
-        <v>-0.04262655895066091</v>
+        <v>0.01673025592120941</v>
       </c>
       <c r="D91">
-        <v>0.004630531252988648</v>
+        <v>-0.007391466988791753</v>
       </c>
       <c r="E91">
-        <v>-0.006796646952400144</v>
+        <v>0.05756705092801639</v>
       </c>
       <c r="F91">
-        <v>-0.03833521047107579</v>
+        <v>0.01897675517756934</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1656256756842854</v>
+        <v>-0.1493167375504424</v>
       </c>
       <c r="C92">
-        <v>0.2819963348162072</v>
+        <v>0.01735624653206085</v>
       </c>
       <c r="D92">
-        <v>-0.1234741172062246</v>
+        <v>-0.2971841676301621</v>
       </c>
       <c r="E92">
-        <v>0.03603793707741645</v>
+        <v>-0.1036718861858626</v>
       </c>
       <c r="F92">
-        <v>0.02006302475786737</v>
+        <v>-0.01750195741773253</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1515919745615182</v>
+        <v>-0.1509249595619578</v>
       </c>
       <c r="C93">
-        <v>0.274758969598728</v>
+        <v>0.02219979229875249</v>
       </c>
       <c r="D93">
-        <v>-0.1614096604383562</v>
+        <v>-0.2700541337322814</v>
       </c>
       <c r="E93">
-        <v>-0.04935725627707065</v>
+        <v>-0.0743248588380848</v>
       </c>
       <c r="F93">
-        <v>0.01926632804617066</v>
+        <v>-0.01652273940190081</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1320718720548606</v>
+        <v>-0.1331624674378892</v>
       </c>
       <c r="C94">
-        <v>-0.02714665442221409</v>
+        <v>0.02378338688837891</v>
       </c>
       <c r="D94">
-        <v>0.0649635436742948</v>
+        <v>0.04619379672037043</v>
       </c>
       <c r="E94">
-        <v>0.01698068139242016</v>
+        <v>0.06161325801493638</v>
       </c>
       <c r="F94">
-        <v>-0.03398864617410803</v>
+        <v>-0.03248084650354593</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1110198186218973</v>
+        <v>-0.1253925923580903</v>
       </c>
       <c r="C95">
-        <v>-0.02939169615523065</v>
+        <v>0.005213139591964467</v>
       </c>
       <c r="D95">
-        <v>0.05325709088245947</v>
+        <v>0.09107782805622293</v>
       </c>
       <c r="E95">
-        <v>0.04563053342357339</v>
+        <v>0.04453112452055162</v>
       </c>
       <c r="F95">
-        <v>-0.05107482465832834</v>
+        <v>0.01497829764300054</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.009652249343255599</v>
+        <v>-0.09858458243410607</v>
       </c>
       <c r="C96">
-        <v>0.0001172907976181121</v>
+        <v>-0.9889256954092025</v>
       </c>
       <c r="D96">
-        <v>0.003201870331380289</v>
+        <v>-0.02871293599872594</v>
       </c>
       <c r="E96">
-        <v>0.004917150111074528</v>
+        <v>0.05758979490137298</v>
       </c>
       <c r="F96">
-        <v>0.004076952529928328</v>
+        <v>-0.04789985303643964</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.175785242267835</v>
+        <v>-0.1882766357908832</v>
       </c>
       <c r="C97">
-        <v>-0.08392490628953116</v>
+        <v>-0.0110205229752291</v>
       </c>
       <c r="D97">
-        <v>0.1831923405907541</v>
+        <v>-0.007027909890661691</v>
       </c>
       <c r="E97">
-        <v>0.02122157434051353</v>
+        <v>0.01891235541129536</v>
       </c>
       <c r="F97">
-        <v>0.9069948570247326</v>
+        <v>0.1753106336999094</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2449355239520515</v>
+        <v>-0.2051421724046875</v>
       </c>
       <c r="C98">
-        <v>-0.06072756206055751</v>
+        <v>0.007115927397457312</v>
       </c>
       <c r="D98">
-        <v>-0.000566067520376638</v>
+        <v>0.009998947354909988</v>
       </c>
       <c r="E98">
-        <v>0.07679341040631167</v>
+        <v>-0.09902922412281913</v>
       </c>
       <c r="F98">
-        <v>-0.02000775272626546</v>
+        <v>0.1114225814875388</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04458417146720667</v>
+        <v>-0.05613436725048528</v>
       </c>
       <c r="C99">
-        <v>0.02610194487409809</v>
+        <v>-0.00392971298575717</v>
       </c>
       <c r="D99">
-        <v>0.040353192139084</v>
+        <v>0.03588427329707775</v>
       </c>
       <c r="E99">
-        <v>0.01826427648594506</v>
+        <v>0.02667224764403305</v>
       </c>
       <c r="F99">
-        <v>-0.0253882478259668</v>
+        <v>-0.004410986140813823</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02408647787769958</v>
+        <v>-0.1243662751429408</v>
       </c>
       <c r="C100">
-        <v>0.007006047588925013</v>
+        <v>-0.04973443758378311</v>
       </c>
       <c r="D100">
-        <v>0.1373321323471731</v>
+        <v>0.3465973808039157</v>
       </c>
       <c r="E100">
-        <v>-0.04932684881547833</v>
+        <v>-0.8946947701636947</v>
       </c>
       <c r="F100">
-        <v>0.05037763169703539</v>
+        <v>0.07733851841807435</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03324541525680896</v>
+        <v>-0.02691727519521053</v>
       </c>
       <c r="C101">
-        <v>-0.008760676401724543</v>
+        <v>0.008751287583485699</v>
       </c>
       <c r="D101">
-        <v>0.03111079404801203</v>
+        <v>0.03104251572537417</v>
       </c>
       <c r="E101">
-        <v>-0.02917732935015791</v>
+        <v>0.0114497993651886</v>
       </c>
       <c r="F101">
-        <v>-0.03712320826977281</v>
+        <v>0.01456425051265366</v>
       </c>
     </row>
     <row r="102" spans="1:6">
